--- a/Projektanforderungen.xlsx
+++ b/Projektanforderungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\HTW\4Semester\ITProduction\App\worker_assistance_battery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84F384E-5A1E-4BE0-AF7B-2B23D49CE654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A811D-DBC1-4478-ADCD-42B2B8100CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1EC2D5B-1EE7-4D48-8C10-9E2D0760D3BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Anforderungsliste Worker Assistance Battery Projekt</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Plattformunabhängigkeit</t>
   </si>
   <si>
-    <t>Die Anwendung kann auf Android/iOS/Nexus Smartphone/Tablet</t>
-  </si>
-  <si>
     <t>Für iOS wird iOS IDE benötigt</t>
   </si>
   <si>
@@ -128,7 +125,7 @@
     <t>Ersatz scannen, App prüft auf korrektes Ersatzteil, Anleitung zum Einbau</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Die Anwendung kann auf Android/iOS/Nexus Smartphone/Tablet installiert und ausgeführt werden</t>
   </si>
 </sst>
 </file>
@@ -557,17 +554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F6D6C5-4117-47AC-8641-AE9B2899D72C}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="77" customWidth="1"/>
+    <col min="5" max="5" width="78.77734375" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -672,7 +669,9 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
@@ -694,9 +693,7 @@
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
@@ -713,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -738,10 +735,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -762,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -784,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -793,14 +790,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
